--- a/VT_KPI_Template_2021_V1.2_Part3.xlsx
+++ b/VT_KPI_Template_2021_V1.2_Part3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LG\Docs &amp; VT Info\KPI &amp;Probation\2021\Team KPI\Caring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_HUB\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Part leader" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Junior_Senior_Test Leader_ST" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Junior_Senior_Test Leader_FIT'!$A$2:$I$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Junior_Senior_Test Leader_FIT'!$A$3:$I$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Junior_Senior_Test Leader_ST'!$A$2:$I$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
   <si>
     <t>Goal Name</t>
   </si>
@@ -404,6 +404,75 @@
   </si>
   <si>
     <t>Applied for GM telematics project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>Project commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commit </t>
+  </si>
+  <si>
+    <t>Broadcasting</t>
+  </si>
+  <si>
+    <t>Anh Tran</t>
+  </si>
+  <si>
+    <t>Huyen</t>
+  </si>
+  <si>
+    <t>Ha Han</t>
+  </si>
+  <si>
+    <t>Mai Le</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Chinh Tran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phuong Nguyen </t>
+  </si>
+  <si>
+    <t>Update (FOTA&amp;USB)</t>
+  </si>
+  <si>
+    <t>Duyen Pham</t>
+  </si>
+  <si>
+    <t>Yen Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh Nguyen </t>
+  </si>
+  <si>
+    <t>Bluetooth  &amp; Wifi</t>
+  </si>
+  <si>
+    <t>Cuong Truong</t>
+  </si>
+  <si>
+    <t>Thuy Dang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duong Nguyen </t>
+  </si>
+  <si>
+    <t>Hien Tran</t>
+  </si>
+  <si>
+    <t>Van Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Nguyen </t>
+  </si>
+  <si>
+    <t>AACP</t>
   </si>
 </sst>
 </file>
@@ -462,7 +531,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +547,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -722,6 +803,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,27 +842,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,23 +884,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1227,10 +1359,10 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="16">
@@ -1244,13 +1376,13 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="56">
+      <c r="I2" s="59">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="16">
         <v>1.3</v>
       </c>
@@ -1262,10 +1394,10 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="56"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="32" t="s">
         <v>61</v>
       </c>
@@ -1280,13 +1412,13 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="56"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="35">
@@ -1300,13 +1432,13 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="51">
+      <c r="I5" s="54">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="35">
         <v>2.2000000000000002</v>
       </c>
@@ -1318,11 +1450,11 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="52"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="35">
         <v>2.2999999999999998</v>
       </c>
@@ -1334,11 +1466,11 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="52"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="35">
         <v>2.4</v>
       </c>
@@ -1350,11 +1482,11 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="35">
         <v>2.5</v>
       </c>
@@ -1366,11 +1498,11 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="35">
         <v>2.6</v>
       </c>
@@ -1382,11 +1514,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="35">
         <v>2.7</v>
       </c>
@@ -1398,10 +1530,10 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="32" t="s">
         <v>61</v>
       </c>
@@ -1416,13 +1548,13 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="52" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="12">
@@ -1436,13 +1568,13 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="57">
+      <c r="I13" s="60">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="12">
         <v>3.2</v>
       </c>
@@ -1454,11 +1586,11 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="12">
         <v>3.4</v>
       </c>
@@ -1470,11 +1602,11 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="12">
         <v>3.5</v>
       </c>
@@ -1486,11 +1618,11 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="12">
         <v>3.6</v>
       </c>
@@ -1502,13 +1634,13 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="57"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="52" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="32">
@@ -1522,13 +1654,13 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="54">
+      <c r="I18" s="57">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="12">
         <v>4.2</v>
       </c>
@@ -1540,11 +1672,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="55"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="32">
@@ -1563,10 +1695,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="51" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="12">
@@ -1585,8 +1717,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="12">
         <v>5.2</v>
       </c>
@@ -1601,8 +1733,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="32">
         <v>5.3</v>
       </c>
@@ -1669,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:AR33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1685,249 +1817,735 @@
     <col min="6" max="7" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="8" customWidth="1"/>
     <col min="9" max="9" width="48.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="6"/>
+    <col min="10" max="10" width="14.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="6" customWidth="1"/>
+    <col min="13" max="18" width="9.109375" style="6"/>
+    <col min="19" max="19" width="17.21875" style="6" customWidth="1"/>
+    <col min="20" max="23" width="9.109375" style="6"/>
+    <col min="24" max="24" width="17" style="6" customWidth="1"/>
+    <col min="25" max="30" width="9.109375" style="6"/>
+    <col min="31" max="31" width="16.109375" style="6" customWidth="1"/>
+    <col min="32" max="37" width="9.109375" style="6"/>
+    <col min="38" max="38" width="15.109375" style="6" customWidth="1"/>
+    <col min="39" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="91"/>
+    </row>
+    <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="59" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="18" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="83"/>
+      <c r="M2" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="83"/>
+      <c r="O2" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="79"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR2" s="83"/>
+    </row>
+    <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="64" t="s">
-        <v>14</v>
-      </c>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="46">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="G5" s="46">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="46"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="65"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="68" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="46">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="G6" s="46">
         <v>0.1</v>
       </c>
       <c r="H6" s="46"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>17</v>
+      <c r="I6" s="77"/>
+      <c r="J6" s="80">
+        <v>50</v>
+      </c>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="80">
+        <v>80</v>
+      </c>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="80">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="80">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="80">
+        <v>50</v>
+      </c>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="46">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G7" s="46">
         <v>0.1</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="14" t="s">
-        <v>16</v>
+      <c r="I7" s="77"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G8" s="46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="46"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="50"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="69"/>
       <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="38" t="s">
+      <c r="J10" s="80"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="46">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G11" s="46">
         <v>0.05</v>
       </c>
       <c r="H11" s="46"/>
-      <c r="I11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="45"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="80"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="46">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="46">
         <v>0.05</v>
       </c>
       <c r="H12" s="46"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>19</v>
+      <c r="I12" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="80"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="46">
@@ -1936,36 +2554,114 @@
       <c r="G13" s="46">
         <v>0.05</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="46"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="80"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="46">
         <v>0.1</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="49" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C15" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="46"/>
@@ -1973,50 +2669,151 @@
       <c r="H15" s="46">
         <v>0.05</v>
       </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="64" t="s">
-        <v>42</v>
-      </c>
+      <c r="I15" s="77"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="65"/>
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="77"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="68" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>92</v>
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="77"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="46"/>
@@ -2024,16 +2821,53 @@
       <c r="H18" s="46">
         <v>0.05</v>
       </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>84</v>
+      <c r="I18" s="77"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+    </row>
+    <row r="19" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
+      <c r="B19" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="46"/>
@@ -2041,144 +2875,383 @@
       <c r="H19" s="46">
         <v>0.05</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="41" t="s">
-        <v>85</v>
+      <c r="I19" s="77"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="42"/>
+        <v>84</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46">
         <v>0.05</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="77" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>88</v>
-      </c>
+      <c r="J20" s="80"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="42"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46">
         <v>0.05</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="77" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46">
         <v>0.05</v>
       </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="42"/>
+      <c r="I22" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="80"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46">
         <v>0.05</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="77"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="77" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="J24" s="80"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="80"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+    </row>
+    <row r="25" spans="1:44" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B25" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="G24" s="46">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="46">
         <v>0.1</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H25" s="46">
         <v>0.1</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I25" s="78" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="J25" s="48"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+    </row>
+    <row r="26" spans="1:44" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B26" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="G25" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="H25" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="10"/>
       <c r="F26" s="46">
         <v>0.05</v>
@@ -2189,152 +3262,371 @@
       <c r="H26" s="46">
         <v>0.05</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+    </row>
+    <row r="27" spans="1:44" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="66"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="H27" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="I27" s="77" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="48" t="s">
+      <c r="J27" s="80"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="70">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="62">
         <v>0.1</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G28" s="62">
         <v>0.1</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H28" s="62">
         <v>0.1</v>
       </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="5" t="s">
+      <c r="I28" s="78"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="21">
-        <f>SUM(F3:F29)</f>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="80"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="F31" s="21">
+        <f>SUM(F4:F30)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="G30" s="21">
-        <f>SUM(G3:G29)</f>
+      <c r="G31" s="21">
+        <f>SUM(G4:G30)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H30" s="21">
-        <f>SUM(H3:H29)</f>
+      <c r="H31" s="21">
+        <f>SUM(H4:H30)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
+    <row r="33" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C7:C10"/>
+  <mergeCells count="46">
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
-  <conditionalFormatting sqref="F22:H22 F3:H13 F18:H19 F14:G17">
+  <conditionalFormatting sqref="F23:H23 F4:H14 F19:H20 F15:G18">
     <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G20">
+  <conditionalFormatting sqref="F21:G21">
     <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:G21">
+  <conditionalFormatting sqref="F22:G22">
     <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H22">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24">
+  <conditionalFormatting sqref="G25:H25">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:H23">
+  <conditionalFormatting sqref="F24:H24">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H17">
+  <conditionalFormatting sqref="H15:H18">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2348,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2361,41 +3653,41 @@
     <col min="5" max="5" width="19.21875" style="6" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="8" customWidth="1"/>
-    <col min="9" max="9" width="48.33203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" style="50" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="73" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="36" t="s">
         <v>21</v>
       </c>
@@ -2405,16 +3697,16 @@
       <c r="H2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="73"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="72" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2431,9 +3723,9 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
@@ -2448,9 +3740,9 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="64" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="68" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2467,9 +3759,9 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
@@ -2484,11 +3776,11 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="72" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -2505,9 +3797,9 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
@@ -2522,9 +3814,9 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
@@ -2539,9 +3831,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="64" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="68" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -2558,9 +3850,9 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2575,7 +3867,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2600,11 +3892,11 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="68" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2619,8 +3911,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="69"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -2634,9 +3926,9 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="64" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2651,9 +3943,9 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
@@ -2666,11 +3958,11 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="68" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="38" t="s">
@@ -2687,8 +3979,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="69"/>
       <c r="D18" s="5" t="s">
         <v>73</v>
@@ -2702,8 +3994,8 @@
       <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="69"/>
       <c r="D19" s="5" t="s">
         <v>75</v>
@@ -2719,8 +4011,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="69"/>
       <c r="D20" s="41" t="s">
         <v>76</v>
@@ -2736,9 +4028,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="41" t="s">
         <v>78</v>
       </c>
@@ -2753,8 +4045,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="52" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -2776,8 +4068,8 @@
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="42" t="s">
         <v>80</v>
       </c>
@@ -2820,10 +4112,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2845,8 +4137,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="47" t="s">
         <v>107</v>
       </c>
@@ -2868,8 +4160,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2877,43 +4169,43 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="70">
+      <c r="F27" s="62">
         <v>0.1</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="62">
         <v>0.1</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="62">
         <v>0.1</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2937,17 +4229,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="H27:H29"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="C3:C4"/>
@@ -2964,6 +4245,17 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:H22 F3:H20">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
